--- a/MethodDemos/output/statistics/parscit-AUTHOR_AFFILIATIONS.xlsx
+++ b/MethodDemos/output/statistics/parscit-AUTHOR_AFFILIATIONS.xlsx
@@ -556,7 +556,7 @@
   <si>
     <t>Rainer Kern --- Vienna University of Technology,Information &amp; Software Engineering Group Vienna,Austria,AT
 Amirreza Tahamtan --- Vienna University of Technology,Information &amp; Software Engineering Group Vienna,Austria,AT
-Min Tjoa --- Vienna University of Technology,Information &amp; Software Engineering Group Vienna,Austria,AT</t>
+A Min Tjoa --- Vienna University of Technology,Information &amp; Software Engineering Group Vienna,Austria,AT</t>
   </si>
   <si>
     <t>TUW-203409</t>
@@ -788,7 +788,7 @@
     <t>Mihai Lupu --- Vienna University of Technology,Austria,AT
 Maia Zaharieva --- University of Vienna &amp; Vienna University of Technology,Austria,AT
 Bogdan Ionescu --- University Politehnica of Bucharest,LAPI,Romania,RO
-Alexandru Lucian Gînsc --- LIST,CEA,France,FR
+Alexandru Lucian Gînscă --- LIST,CEA,France,FR
 Bogdan Boteanu --- University Politehnica of Bucharest,LAPI,Romania,RO
 Henning Müller --- University of Applied Sciences Western Switzerland,Switzerland,CH</t>
   </si>
